--- a/ListasDatos/De Jesús Orduña Sofía del Pilar_2021.xlsx
+++ b/ListasDatos/De Jesús Orduña Sofía del Pilar_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="396">
   <si>
     <t>NC</t>
   </si>
@@ -242,6 +242,9 @@
     <t>gc050405@gmail.com</t>
   </si>
   <si>
+    <t>cesarcuevasc3@gmail.com</t>
+  </si>
+  <si>
     <t>isyssmonserrathc@gmail.com</t>
   </si>
   <si>
@@ -314,6 +317,9 @@
     <t>2721690558</t>
   </si>
   <si>
+    <t>2722848082</t>
+  </si>
+  <si>
     <t>2721054944</t>
   </si>
   <si>
@@ -417,6 +423,9 @@
   </si>
   <si>
     <t>GERARDO CORTÉS VILLASCAN</t>
+  </si>
+  <si>
+    <t>GERARDO CUEVAS MACUIXTLE</t>
   </si>
   <si>
     <t>JANETH PIMENTEL DOMINGUEZ</t>
@@ -1615,16 +1624,16 @@
         <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1644,16 +1653,16 @@
         <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1673,19 +1682,19 @@
         <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1705,19 +1714,19 @@
         <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1733,6 +1742,24 @@
       <c r="D6" t="s">
         <v>54</v>
       </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
@@ -1748,22 +1775,22 @@
         <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1780,19 +1807,19 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1809,22 +1836,22 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1841,19 +1868,19 @@
         <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1870,19 +1897,19 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1899,22 +1926,22 @@
         <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1931,16 +1958,16 @@
         <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1957,22 +1984,22 @@
         <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H14" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1989,19 +2016,19 @@
         <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2018,22 +2045,22 @@
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2050,19 +2077,19 @@
         <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2079,22 +2106,22 @@
         <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H18" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2111,22 +2138,22 @@
         <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H19" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2143,22 +2170,22 @@
         <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H20" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I20" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2175,22 +2202,22 @@
         <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I21" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J21" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2207,22 +2234,22 @@
         <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J22" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2239,22 +2266,22 @@
         <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H23" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I23" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J23" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2271,19 +2298,19 @@
         <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H24" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I24" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J24" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2300,22 +2327,22 @@
         <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I25" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2332,22 +2359,22 @@
         <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H26" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I26" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J26" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2409,28 +2436,28 @@
         <v>19330051920223</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2438,31 +2465,31 @@
         <v>19330051920430</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="J3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2470,31 +2497,31 @@
         <v>19330051920224</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="J4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2502,31 +2529,31 @@
         <v>19330051920225</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H5" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I5" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="J5" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2534,28 +2561,28 @@
         <v>19330051920226</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E6" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H6" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="I6" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="J6" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2563,31 +2590,31 @@
         <v>19330051920227</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2595,31 +2622,31 @@
         <v>19330051920229</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E8" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F8" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G8" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="I8" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J8" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2627,31 +2654,31 @@
         <v>19330051920230</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E9" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J9" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2659,31 +2686,31 @@
         <v>19330051920231</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E10" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F10" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G10" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H10" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I10" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="J10" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2691,31 +2718,31 @@
         <v>19330051920232</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E11" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H11" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I11" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J11" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2723,31 +2750,31 @@
         <v>19330051920233</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D12" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E12" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F12" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G12" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H12" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="I12" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J12" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2755,31 +2782,31 @@
         <v>19330051920234</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D13" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E13" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F13" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G13" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H13" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="I13" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="J13" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2790,25 +2817,25 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D14" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E14" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F14" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G14" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H14" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="J14" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2816,31 +2843,31 @@
         <v>19330051920235</v>
       </c>
       <c r="B15" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E15" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F15" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G15" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H15" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="I15" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J15" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2848,28 +2875,28 @@
         <v>19330051920236</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E16" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F16" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H16" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I16" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J16" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2877,31 +2904,31 @@
         <v>19330051920237</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D17" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E17" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F17" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G17" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H17" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="I17" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="J17" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2909,31 +2936,31 @@
         <v>19330051920228</v>
       </c>
       <c r="B18" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D18" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E18" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F18" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H18" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="I18" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2941,31 +2968,31 @@
         <v>19330051420227</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E19" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F19" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G19" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H19" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="I19" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="J19" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2973,28 +3000,28 @@
         <v>19330051920404</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C20" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D20" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E20" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F20" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H20" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="I20" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="J20" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3002,31 +3029,31 @@
         <v>19330051920240</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D21" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E21" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F21" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G21" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H21" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="I21" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="J21" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3034,31 +3061,31 @@
         <v>19330051920239</v>
       </c>
       <c r="B22" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D22" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E22" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F22" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G22" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H22" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I22" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="J22" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3066,28 +3093,28 @@
         <v>19330051920241</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D23" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E23" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F23" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H23" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="I23" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="J23" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3101,25 +3128,25 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E24" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F24" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G24" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H24" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="I24" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="J24" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3127,28 +3154,28 @@
         <v>19330051920243</v>
       </c>
       <c r="B25" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D25" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E25" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F25" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H25" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="I25" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="J25" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3156,28 +3183,28 @@
         <v>19330051920244</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E26" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F26" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G26" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H26" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="J26" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3188,25 +3215,25 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D27" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E27" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F27" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H27" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="I27" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J27" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
